--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -456,18 +456,18 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>41502.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>3.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>2.99</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>43.56</v>
+        <v>4.36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>20.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>3.86</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>2.53</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>2.22</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>3.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41502.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.8</v>
+        <v>3.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.65</v>
+        <v>1.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.43</v>
+        <v>5.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>229.6</v>
+        <v>22.96</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.53</v>
+        <v>4.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.96</v>
+        <v>2.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.12</v>
+        <v>2.91</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>54.16</v>
+        <v>5.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41502.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.49</v>
+        <v>2.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.67</v>
+        <v>5.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>0.98</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>9.82</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41502.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.24</v>
+        <v>4.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.4</v>
+        <v>3.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.03</v>
+        <v>6.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.36</v>
+        <v>1.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.68</v>
+        <v>2.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>257.05</v>
+        <v>25.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.48</v>
+        <v>4.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.56</v>
+        <v>3.26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.63</v>
+        <v>3.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.99</v>
+        <v>5.8</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41502.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.25</v>
+        <v>2.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>50.56</v>
+        <v>5.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>41.39</v>
+        <v>4.14</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>71.17</v>
+        <v>7.12</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.55</v>
+        <v>1.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.92</v>
+        <v>2.59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>269.66</v>
+        <v>26.97</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.9</v>
+        <v>5.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>34.25</v>
+        <v>3.43</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.95</v>
+        <v>1.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.62</v>
+        <v>3.46</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>64.72</v>
+        <v>6.47</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41502.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="R7" s="4" t="n">
+      <c r="W7" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>5.21</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>29.74</v>
+        <v>2.97</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -1279,10 +1279,10 @@
         <v>41502.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>0</v>
@@ -1318,49 +1318,49 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.79</v>
-      </c>
       <c r="V8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="4" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AG8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41502.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>46.99</v>
+        <v>4.7</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41502.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,55 +652,55 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41502.34027777778</v>
+        <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.34</v>
@@ -709,985 +709,465 @@
         <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>19.29</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>3.65</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>3.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41502.34722222222</v>
+        <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.31</v>
+        <v>3.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.41</v>
+        <v>2.21</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.96</v>
+        <v>21.01</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.42</v>
+        <v>4.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41502.35416666666</v>
+        <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.53</v>
+        <v>2.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.14</v>
+        <v>5.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.88</v>
+        <v>4.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.85</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>2.15</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.47</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2</v>
+        <v>6.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.48</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41502.36111111111</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1.63</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.69</v>
-      </c>
       <c r="J5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.04</v>
+        <v>1.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.71</v>
+        <v>15.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.85</v>
+        <v>2.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.6</v>
+        <v>0.97</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.26</v>
+        <v>1.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.16</v>
+        <v>2.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.86</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.03</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.8</v>
+        <v>4.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41502.36805555555</v>
+        <v>40751.40971064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.33</v>
+        <v>5.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.72</v>
+        <v>4.06</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5.06</v>
+        <v>12.52</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.14</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.83</v>
+        <v>4.54</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.12</v>
+        <v>21.37</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.82</v>
+        <v>6.98</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.25</v>
+        <v>3.03</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.03</v>
+        <v>5.03</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.14</v>
+        <v>5.26</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>26.97</v>
+        <v>61.37</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.09</v>
+        <v>12.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.68</v>
+        <v>4.16</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.43</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.79</v>
+        <v>4.36</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.86</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.46</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.48</v>
+        <v>3.68</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.31</v>
+        <v>3.34</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.54</v>
+        <v>3.93</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.13</v>
+        <v>5.26</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.47</v>
+        <v>19.7</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.95</v>
+        <v>2.26</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41502.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41502.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41502.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41502.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41502.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>42.09</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>64.56</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>269.86</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>58.44</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>20.96</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.96</v>
+        <v>39.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.17</v>
+        <v>31.72</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.45</v>
+        <v>54.46</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.01</v>
+        <v>210.14</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4</v>
+        <v>39.96</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.7</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.98</v>
+        <v>49.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.11</v>
+        <v>51.15</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.57</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.12</v>
+        <v>71.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.57</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>273.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.52</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.48</v>
+        <v>64.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.4</v>
+        <v>44.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.29</v>
+        <v>152.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.95</v>
+        <v>29.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.02</v>
+        <v>40.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.04</v>
+        <v>13.042</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>39.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.72</v>
+        <v>31.719</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.46</v>
+        <v>54.455</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.59</v>
+        <v>9.586</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.83</v>
+        <v>15.831</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.58</v>
+        <v>16.579</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.59</v>
+        <v>4.589</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.15</v>
+        <v>20.153</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.29</v>
+        <v>12.292</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.539</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.145</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.14</v>
+        <v>210.139</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.96</v>
+        <v>39.958</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.52</v>
+        <v>26.516</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.79</v>
+        <v>13.788</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.56</v>
+        <v>2.556</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.7</v>
+        <v>26.697</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.33</v>
+        <v>12.326</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.6</v>
+        <v>16.601</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.76</v>
+        <v>49.756</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.28</v>
+        <v>7.277</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
@@ -863,108 +863,108 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.24</v>
+        <v>17.239</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.547</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.15</v>
+        <v>51.145</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.57</v>
+        <v>41.573</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.53</v>
+        <v>18.525</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>71.22</v>
+        <v>71.221</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.587</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.57</v>
+        <v>18.573</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.51</v>
+        <v>20.515</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.6</v>
+        <v>21.597</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>26.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.61</v>
+        <v>15.608</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.044</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.1</v>
+        <v>273.095</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.52</v>
+        <v>51.516</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.52</v>
+        <v>34.516</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.06</v>
+        <v>18.058</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.86</v>
+        <v>2.865</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.71</v>
+        <v>34.712</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.33</v>
+        <v>13.333</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.72</v>
+        <v>15.716</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.53</v>
+        <v>21.535</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.81</v>
+        <v>64.809</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>13.45</v>
@@ -979,13 +979,13 @@
         <v>29.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.61</v>
+        <v>23.6</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.01</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.29</v>
@@ -1039,7 +1039,7 @@
         <v>1.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.92</v>
+        <v>20.91</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>8.58</v>
@@ -1057,117 +1057,13 @@
         <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.18</v>
+        <v>40.17</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,106 +964,210 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.4027662037</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.77</v>
+        <v>9.772</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.23</v>
+        <v>29.227</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.6</v>
+        <v>23.605</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.59</v>
+        <v>10.586</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44</v>
+        <v>44.012</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.17</v>
+        <v>7.165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.5</v>
+        <v>10.497</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.73</v>
+        <v>11.728</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.33</v>
+        <v>12.334</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9</v>
+        <v>8.997999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.92</v>
+        <v>152.921</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.53</v>
+        <v>29.532</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.71</v>
+        <v>19.709</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.288</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.91</v>
+        <v>20.916</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.659</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.021000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.31</v>
+        <v>12.305</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.17</v>
+        <v>40.179</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.4</v>
+        <v>5.401</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.149</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.40971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_70.xlsx
+++ b/DATA_goal/Junction_Flooding_70.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,210 +964,106 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.452</v>
+        <v>13.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.772</v>
+        <v>9.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.227</v>
+        <v>29.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.605</v>
+        <v>23.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.586</v>
+        <v>10.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.012</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.288</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.165</v>
+        <v>7.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.497</v>
+        <v>10.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.728</v>
+        <v>11.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.334</v>
+        <v>12.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.383</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.527</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.997999999999999</v>
+        <v>9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.637</v>
+        <v>0.64</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.921</v>
+        <v>152.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.532</v>
+        <v>29.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.709</v>
+        <v>19.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.288</v>
+        <v>10.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.916</v>
+        <v>20.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.583</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.659</v>
+        <v>7.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.021000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.305</v>
+        <v>12.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.179</v>
+        <v>40.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.401</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.149</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
